--- a/Remainder_report.xlsx
+++ b/Remainder_report.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,13 +483,13 @@
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E2" t="n">
         <v>155</v>
       </c>
       <c r="F2" t="n">
-        <v>1705</v>
+        <v>1550</v>
       </c>
       <c r="G2" t="n">
         <v>490</v>
@@ -567,6 +567,31 @@
         <v>32000</v>
       </c>
       <c r="G5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Чехол Itel A48</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
+        <v>10</v>
+      </c>
+      <c r="E6" t="n">
+        <v>149</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1490</v>
+      </c>
+      <c r="G6" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Remainder_report.xlsx
+++ b/Remainder_report.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -501,97 +501,47 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Чехол Samsung A12</t>
+          <t>СЗУ micro/USB 2A (Maxvi TCM-200MB) black комплект</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>5</v>
+        <v>200</v>
       </c>
       <c r="E3" t="n">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="F3" t="n">
-        <v>774</v>
+        <v>32000</v>
       </c>
       <c r="G3" t="n">
-        <v>490</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Чехол Itel A48</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
         <v>1</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Чехол Redmi 9C</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>3</v>
-      </c>
       <c r="D4" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E4" t="n">
         <v>149</v>
       </c>
       <c r="F4" t="n">
-        <v>745</v>
+        <v>1490</v>
       </c>
       <c r="G4" t="n">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>1</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>СЗУ micro/USB 2A (Maxvi TCM-200MB) black комплект</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="n">
-        <v>200</v>
-      </c>
-      <c r="E5" t="n">
-        <v>160</v>
-      </c>
-      <c r="F5" t="n">
-        <v>32000</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>3</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Чехол Itel A48</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" t="n">
-        <v>10</v>
-      </c>
-      <c r="E6" t="n">
-        <v>149</v>
-      </c>
-      <c r="F6" t="n">
-        <v>1490</v>
-      </c>
-      <c r="G6" t="n">
         <v>0</v>
       </c>
     </row>
